--- a/Matching Diagram/Stall Velocity TakeOff.xlsx
+++ b/Matching Diagram/Stall Velocity TakeOff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E21B45B-4201-411A-9446-EA61E7D7B761}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB1E6B-5EBC-4B1A-81BF-F840BD8DF5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{84061F29-D667-4C18-B8AE-82F730581AF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{84061F29-D667-4C18-B8AE-82F730581AF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2054,34 +2054,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.232815000000002</c:v>
+                  <c:v>111.42747000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,34 +2169,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.42747000000001</c:v>
+                  <c:v>116.492355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2399,34 +2399,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82.830604499999993</c:v>
+                  <c:v>95.909120999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,34 +2514,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95.909120999999999</c:v>
+                  <c:v>100.26862649999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4170,34 +4170,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>112.24595541599997</c:v>
+                  <c:v>129.96900100799999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,34 +4285,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>129.96900100799999</c:v>
+                  <c:v>135.87668287199998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4515,34 +4515,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.613617088799984</c:v>
+                  <c:v>111.86839873439999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,34 +4630,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>111.86839873439999</c:v>
+                  <c:v>116.95332594959997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8449,8 +8449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{969B42B4-20ED-4928-9D58-CC735C4176AB}">
   <dimension ref="A1:AC43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8542,7 +8542,7 @@
         <v>2.7</v>
       </c>
       <c r="G3" s="6">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H3" s="41"/>
       <c r="I3" s="12" t="s">
@@ -8585,7 +8585,7 @@
         <v>2.8</v>
       </c>
       <c r="G4" s="7">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H4" s="42" t="s">
         <v>14</v>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="C8" s="27">
         <f t="shared" ref="C8" si="2">$J$2^2*$O$1*G3/2</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>3</v>
@@ -8745,7 +8745,7 @@
       </c>
       <c r="G8" s="19">
         <f>$J$2^2*$I$1*G3/2</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="H8" s="22"/>
       <c r="Y8" s="23"/>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="C9" s="28">
         <f>$J$2^2*$O$1*G4/2</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="G9" s="20">
         <f>$J$2^2*$I$1*G4/2</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="C13" s="27">
         <f t="shared" ref="C13:C14" si="6">$J$3^2*$O$1*G3/2</f>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>3</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G13" s="19">
         <f>$J$3^2*$I$1*G3/2</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="H13" s="22"/>
       <c r="Y13" s="24"/>
@@ -8882,7 +8882,7 @@
       </c>
       <c r="C14" s="26">
         <f t="shared" si="6"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>4</v>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="G14" s="20">
         <f>$J$3^2*$I$1*G4/2</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="Y14" s="39"/>
       <c r="Z14" s="40"/>
@@ -9079,14 +9079,14 @@
       </c>
       <c r="P18" s="30">
         <f>$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q18" s="16">
         <v>0</v>
       </c>
       <c r="R18" s="30">
         <f>$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S18" s="16">
         <v>0</v>
@@ -9100,14 +9100,14 @@
       </c>
       <c r="V18" s="30">
         <f>$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W18" s="16">
         <v>0</v>
       </c>
       <c r="X18" s="30">
         <f>$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y18" s="16">
         <v>0</v>
@@ -9172,7 +9172,7 @@
       </c>
       <c r="P19" s="30">
         <f t="shared" ref="P19:P27" si="15">$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q19" s="16">
         <f>Q18+10</f>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="R19" s="30">
         <f t="shared" ref="R19:R27" si="16">$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S19" s="16">
         <f>S18+10</f>
@@ -9196,7 +9196,7 @@
       </c>
       <c r="V19" s="30">
         <f t="shared" ref="V19:V27" si="18">$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W19" s="16">
         <f>W18+10</f>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="X19" s="30">
         <f t="shared" ref="X19:X27" si="19">$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y19" s="16">
         <f>Y18+10</f>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="P20" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q20" s="16">
         <f t="shared" ref="Q20" si="26">Q19+10</f>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="R20" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ref="S20:S27" si="27">S19+10</f>
@@ -9294,7 +9294,7 @@
       </c>
       <c r="V20" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W20" s="16">
         <f t="shared" ref="W20" si="29">W19+10</f>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="X20" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20:Y27" si="30">Y19+10</f>
@@ -9368,7 +9368,7 @@
       </c>
       <c r="P21" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q21" s="16">
         <f t="shared" ref="Q21" si="35">Q20+10</f>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="R21" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S21" s="16">
         <f t="shared" si="27"/>
@@ -9392,7 +9392,7 @@
       </c>
       <c r="V21" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W21" s="16">
         <f t="shared" ref="W21" si="37">W20+10</f>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="X21" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="30"/>
@@ -9466,7 +9466,7 @@
       </c>
       <c r="P22" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q22" s="16">
         <f t="shared" ref="Q22" si="42">Q21+10</f>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="R22" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" si="27"/>
@@ -9490,7 +9490,7 @@
       </c>
       <c r="V22" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W22" s="16">
         <f t="shared" ref="W22" si="44">W21+10</f>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="X22" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="30"/>
@@ -9564,7 +9564,7 @@
       </c>
       <c r="P23" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q23" s="16">
         <f t="shared" ref="Q23" si="49">Q22+10</f>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="R23" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" si="27"/>
@@ -9588,7 +9588,7 @@
       </c>
       <c r="V23" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W23" s="16">
         <f t="shared" ref="W23" si="51">W22+10</f>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="X23" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="30"/>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="P24" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q24" s="16">
         <f t="shared" ref="Q24" si="56">Q23+10</f>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="R24" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S24" s="16">
         <f t="shared" si="27"/>
@@ -9686,7 +9686,7 @@
       </c>
       <c r="V24" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W24" s="16">
         <f t="shared" ref="W24" si="58">W23+10</f>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="X24" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="30"/>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="P25" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q25" s="16">
         <f t="shared" ref="Q25" si="63">Q24+10</f>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="R25" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S25" s="16">
         <f t="shared" si="27"/>
@@ -9784,7 +9784,7 @@
       </c>
       <c r="V25" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W25" s="16">
         <f t="shared" ref="W25" si="65">W24+10</f>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="X25" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="30"/>
@@ -9858,7 +9858,7 @@
       </c>
       <c r="P26" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q26" s="16">
         <f t="shared" ref="Q26" si="70">Q25+10</f>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="R26" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" si="27"/>
@@ -9882,7 +9882,7 @@
       </c>
       <c r="V26" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W26" s="16">
         <f t="shared" ref="W26" si="72">W25+10</f>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="X26" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="30"/>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="P27" s="30">
         <f t="shared" si="15"/>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="Q27" s="4">
         <f t="shared" ref="Q27" si="77">Q26+10</f>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="R27" s="30">
         <f t="shared" si="16"/>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="27"/>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="V27" s="30">
         <f t="shared" si="18"/>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="W27" s="4">
         <f t="shared" ref="W27" si="79">W26+10</f>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="X27" s="30">
         <f t="shared" si="19"/>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="30"/>
@@ -10206,14 +10206,14 @@
       </c>
       <c r="P32" s="30">
         <f>$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q32" s="16">
         <v>0</v>
       </c>
       <c r="R32" s="30">
         <f>$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S32" s="16">
         <v>0</v>
@@ -10227,14 +10227,14 @@
       </c>
       <c r="V32" s="30">
         <f>$C$13</f>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W32" s="16">
         <v>0</v>
       </c>
       <c r="X32" s="30">
         <f>$C$14</f>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y32" s="16">
         <v>0</v>
@@ -10299,7 +10299,7 @@
       </c>
       <c r="P33" s="30">
         <f t="shared" ref="P33:P41" si="87">$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q33" s="16">
         <f>Q32+10</f>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="R33" s="30">
         <f t="shared" ref="R33:R41" si="88">$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S33" s="16">
         <f>S32+10</f>
@@ -10323,7 +10323,7 @@
       </c>
       <c r="V33" s="30">
         <f t="shared" ref="V33:V41" si="90">$C$13</f>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W33" s="16">
         <f>W32+10</f>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="X33" s="30">
         <f t="shared" ref="X33:X41" si="91">$C$14</f>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y33" s="16">
         <f>Y32+10</f>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="P34" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q34" s="16">
         <f t="shared" ref="Q34" si="99">Q33+10</f>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="R34" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" ref="S34:S41" si="100">S33+10</f>
@@ -10421,7 +10421,7 @@
       </c>
       <c r="V34" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W34" s="16">
         <f t="shared" ref="W34" si="102">W33+10</f>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="X34" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" ref="Y34:Y41" si="103">Y33+10</f>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="P35" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q35" s="16">
         <f t="shared" ref="Q35" si="109">Q34+10</f>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="R35" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" si="100"/>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="V35" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W35" s="16">
         <f t="shared" ref="W35" si="111">W34+10</f>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="X35" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="103"/>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="P36" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q36" s="16">
         <f t="shared" ref="Q36" si="117">Q35+10</f>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="R36" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S36" s="16">
         <f t="shared" si="100"/>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="V36" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W36" s="16">
         <f t="shared" ref="W36" si="119">W35+10</f>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="X36" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" si="103"/>
@@ -10691,7 +10691,7 @@
       </c>
       <c r="P37" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q37" s="16">
         <f t="shared" ref="Q37" si="125">Q36+10</f>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="R37" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S37" s="16">
         <f t="shared" si="100"/>
@@ -10715,7 +10715,7 @@
       </c>
       <c r="V37" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W37" s="16">
         <f t="shared" ref="W37" si="127">W36+10</f>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="X37" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y37" s="16">
         <f t="shared" si="103"/>
@@ -10789,7 +10789,7 @@
       </c>
       <c r="P38" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q38" s="16">
         <f t="shared" ref="Q38" si="133">Q37+10</f>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="R38" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S38" s="16">
         <f t="shared" si="100"/>
@@ -10813,7 +10813,7 @@
       </c>
       <c r="V38" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W38" s="16">
         <f t="shared" ref="W38" si="135">W37+10</f>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="X38" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y38" s="16">
         <f t="shared" si="103"/>
@@ -10887,7 +10887,7 @@
       </c>
       <c r="P39" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q39" s="16">
         <f t="shared" ref="Q39" si="141">Q38+10</f>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="R39" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" si="100"/>
@@ -10911,7 +10911,7 @@
       </c>
       <c r="V39" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W39" s="16">
         <f t="shared" ref="W39" si="143">W38+10</f>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="X39" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y39" s="16">
         <f t="shared" si="103"/>
@@ -10985,7 +10985,7 @@
       </c>
       <c r="P40" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q40" s="16">
         <f t="shared" ref="Q40" si="149">Q39+10</f>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="R40" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S40" s="16">
         <f t="shared" si="100"/>
@@ -11009,7 +11009,7 @@
       </c>
       <c r="V40" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W40" s="16">
         <f t="shared" ref="W40" si="151">W39+10</f>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="X40" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y40" s="16">
         <f t="shared" si="103"/>
@@ -11083,7 +11083,7 @@
       </c>
       <c r="P41" s="30">
         <f t="shared" si="87"/>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="Q41" s="4">
         <f t="shared" ref="Q41" si="157">Q40+10</f>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="R41" s="30">
         <f t="shared" si="88"/>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="100"/>
@@ -11107,7 +11107,7 @@
       </c>
       <c r="V41" s="30">
         <f t="shared" si="90"/>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="W41" s="4">
         <f t="shared" ref="W41" si="159">W40+10</f>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="X41" s="30">
         <f t="shared" si="91"/>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" si="103"/>
@@ -11277,14 +11277,14 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11300,14 +11300,14 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -11323,14 +11323,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -11346,14 +11346,14 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -11369,14 +11369,14 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B6">
         <v>0.4</v>
       </c>
       <c r="C6" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -11392,14 +11392,14 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -11415,14 +11415,14 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
       <c r="C8" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -11438,14 +11438,14 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D9">
         <v>0.7</v>
@@ -11461,14 +11461,14 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -11484,14 +11484,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -11507,14 +11507,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -11530,14 +11530,14 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D13">
         <v>1.1000000000000001</v>
@@ -11553,14 +11553,14 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
       <c r="C14" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -11576,14 +11576,14 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
       <c r="C15" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D15">
         <v>1.3</v>
@@ -11599,14 +11599,14 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B16">
         <v>1.4</v>
       </c>
       <c r="C16" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D16">
         <v>1.4</v>
@@ -11622,14 +11622,14 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D17">
         <v>1.5</v>
@@ -11645,14 +11645,14 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B18">
         <v>1.6</v>
       </c>
       <c r="C18" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D18">
         <v>1.6</v>
@@ -11668,14 +11668,14 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$G$9</f>
-        <v>111.42747000000001</v>
+        <v>116.492355</v>
       </c>
       <c r="B19">
         <v>1.7</v>
       </c>
       <c r="C19" s="36">
         <f>Sheet1!$G$8</f>
-        <v>96.232815000000002</v>
+        <v>111.42747000000001</v>
       </c>
       <c r="D19">
         <v>1.7</v>
@@ -11726,14 +11726,14 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -11749,14 +11749,14 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -11772,14 +11772,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -11795,14 +11795,14 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -11818,14 +11818,14 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B6">
         <v>0.4</v>
       </c>
       <c r="C6" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -11841,14 +11841,14 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -11864,14 +11864,14 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
       <c r="C8" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -11887,14 +11887,14 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D9">
         <v>0.7</v>
@@ -11910,14 +11910,14 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -11933,14 +11933,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -11956,14 +11956,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -11979,14 +11979,14 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D13">
         <v>1.1000000000000001</v>
@@ -12002,14 +12002,14 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
       <c r="C14" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -12025,14 +12025,14 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
       <c r="C15" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D15">
         <v>1.3</v>
@@ -12048,14 +12048,14 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B16">
         <v>1.4</v>
       </c>
       <c r="C16" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D16">
         <v>1.4</v>
@@ -12071,14 +12071,14 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D17">
         <v>1.5</v>
@@ -12094,14 +12094,14 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B18">
         <v>1.6</v>
       </c>
       <c r="C18" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D18">
         <v>1.6</v>
@@ -12117,14 +12117,14 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$C$9</f>
-        <v>95.909120999999999</v>
+        <v>100.26862649999998</v>
       </c>
       <c r="B19">
         <v>1.7</v>
       </c>
       <c r="C19" s="36">
         <f>Sheet1!$C$8</f>
-        <v>82.830604499999993</v>
+        <v>95.909120999999999</v>
       </c>
       <c r="D19">
         <v>1.7</v>
@@ -12175,14 +12175,14 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$C$14</f>
-        <v>111.86839873439999</v>
+        <v>116.95332594959997</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="36">
         <f>Sheet1!$C$13</f>
-        <v>96.613617088799984</v>
+        <v>111.86839873439999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12595,7 +12595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55542CA-1A39-4DB3-ADB4-A6DA757DDE58}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -12624,14 +12624,14 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -12647,14 +12647,14 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D3">
         <v>0.1</v>
@@ -12670,14 +12670,14 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D4">
         <v>0.2</v>
@@ -12693,14 +12693,14 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D5">
         <v>0.3</v>
@@ -12716,14 +12716,14 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B6">
         <v>0.4</v>
       </c>
       <c r="C6" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D6">
         <v>0.4</v>
@@ -12739,14 +12739,14 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D7">
         <v>0.5</v>
@@ -12762,14 +12762,14 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
       <c r="C8" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -12785,14 +12785,14 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D9">
         <v>0.7</v>
@@ -12808,14 +12808,14 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D10">
         <v>0.8</v>
@@ -12831,14 +12831,14 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D11">
         <v>0.9</v>
@@ -12854,14 +12854,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -12877,14 +12877,14 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D13">
         <v>1.1000000000000001</v>
@@ -12900,14 +12900,14 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
       <c r="C14" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D14">
         <v>1.2</v>
@@ -12923,14 +12923,14 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
       <c r="C15" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D15">
         <v>1.3</v>
@@ -12946,14 +12946,14 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B16">
         <v>1.4</v>
       </c>
       <c r="C16" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D16">
         <v>1.4</v>
@@ -12969,14 +12969,14 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D17">
         <v>1.5</v>
@@ -12992,14 +12992,14 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B18">
         <v>1.6</v>
       </c>
       <c r="C18" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D18">
         <v>1.6</v>
@@ -13015,14 +13015,14 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$G$14</f>
-        <v>129.96900100799999</v>
+        <v>135.87668287199998</v>
       </c>
       <c r="B19">
         <v>1.7</v>
       </c>
       <c r="C19" s="36">
         <f>Sheet1!$G$13</f>
-        <v>112.24595541599997</v>
+        <v>129.96900100799999</v>
       </c>
       <c r="D19">
         <v>1.7</v>

--- a/Matching Diagram/Stall Velocity TakeOff.xlsx
+++ b/Matching Diagram/Stall Velocity TakeOff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\University\Airplane-Design-II\Matching Diagram\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FB1E6B-5EBC-4B1A-81BF-F840BD8DF5D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B3AFBA0-7524-4D64-8821-F9323703E589}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{84061F29-D667-4C18-B8AE-82F730581AF1}"/>
   </bookViews>
@@ -881,34 +881,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.101817445908992</c:v>
+                  <c:v>102.15272616886348</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -996,34 +996,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>102.15272616886348</c:v>
+                  <c:v>113.50302907651498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1111,34 +1111,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.93616047141397</c:v>
+                  <c:v>121.06989768161598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1226,34 +1226,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58.617371907839207</c:v>
+                  <c:v>87.926057861758807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1341,34 +1341,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87.926057861758807</c:v>
+                  <c:v>97.695619846398671</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1456,34 +1456,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>91.182578523305423</c:v>
+                  <c:v>104.20866116949192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,34 +1939,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.038160000000005</c:v>
+                  <c:v>96.232815000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2169,34 +2169,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.492355</c:v>
+                  <c:v>126.62212500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2284,34 +2284,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.752088000000001</c:v>
+                  <c:v>82.830604499999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,34 +2514,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100.26862649999998</c:v>
+                  <c:v>108.98763749999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2997,34 +2997,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.713592170414202</c:v>
+                  <c:v>122.5703882556213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,34 +3112,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>122.5703882556213</c:v>
+                  <c:v>136.18932028402367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,34 +3227,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>127.11003226508873</c:v>
+                  <c:v>145.26860830295857</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3342,34 +3342,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.333453670059171</c:v>
+                  <c:v>105.50018050508875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,34 +3457,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105.50018050508875</c:v>
+                  <c:v>117.22242278343194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3572,34 +3572,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109.4075945978698</c:v>
+                  <c:v>125.03725096899407</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4055,34 +4055,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94.522909823999996</c:v>
+                  <c:v>112.24595541599997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,34 +4285,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>135.87668287199998</c:v>
+                  <c:v>147.69204659999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4400,34 +4400,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>81.358835443199993</c:v>
+                  <c:v>96.613617088799984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4630,34 +4630,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>116.95332594959997</c:v>
+                  <c:v>127.12318037999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8496,10 +8496,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="G2" s="5">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H2" s="41" t="s">
         <v>13</v>
@@ -8539,7 +8539,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="6">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G3" s="6">
         <v>2.2000000000000002</v>
@@ -8582,10 +8582,10 @@
         <v>4</v>
       </c>
       <c r="F4" s="7">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="G4" s="7">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="H4" s="42" t="s">
         <v>14</v>
@@ -8698,22 +8698,22 @@
       </c>
       <c r="B7" s="17">
         <f>$J$4^2*$O$1*F2/2</f>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="C7" s="18">
         <f>$J$2^2*$O$1*G2/2</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="17">
         <f>$J$4^2*$I$1*F2/2</f>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="G7" s="18">
         <f t="shared" ref="G7" si="0">$J$2^2*$I$1*G2/2</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="H7" s="37" t="s">
         <v>9</v>
@@ -8730,7 +8730,7 @@
       </c>
       <c r="B8" s="19">
         <f t="shared" ref="B8:B9" si="1">$J$4^2*$O$1*F3/2</f>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="C8" s="27">
         <f t="shared" ref="C8" si="2">$J$2^2*$O$1*G3/2</f>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="F8" s="19">
         <f t="shared" ref="F8:F9" si="3">$J$4^2*$I$1*F3/2</f>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="G8" s="19">
         <f>$J$2^2*$I$1*G3/2</f>
@@ -8759,22 +8759,22 @@
       </c>
       <c r="B9" s="20">
         <f t="shared" si="1"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="C9" s="28">
         <f>$J$2^2*$O$1*G4/2</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="20">
         <f t="shared" si="3"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="G9" s="20">
         <f>$J$2^2*$I$1*G4/2</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
@@ -8817,22 +8817,22 @@
       </c>
       <c r="B12" s="17">
         <f>$J$5^2*$O$1*F2/2</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="C12" s="18">
         <f>$J$3^2*$O$1*G2/2</f>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
       <c r="F12" s="17">
         <f>$J$5^2*$I$1*F2/2</f>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="G12" s="18">
         <f t="shared" ref="G12" si="4">$J$3^2*$I$1*G2/2</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="H12" s="37" t="s">
         <v>8</v>
@@ -8849,7 +8849,7 @@
       </c>
       <c r="B13" s="19">
         <f t="shared" ref="B13:B14" si="5">$J$5^2*$O$1*F3/2</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="C13" s="27">
         <f t="shared" ref="C13:C14" si="6">$J$3^2*$O$1*G3/2</f>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="F13" s="19">
         <f t="shared" ref="F13:F14" si="7">$J$5^2*$I$1*F3/2</f>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="G13" s="19">
         <f>$J$3^2*$I$1*G3/2</f>
@@ -8878,22 +8878,22 @@
       </c>
       <c r="B14" s="21">
         <f t="shared" si="5"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="C14" s="26">
         <f t="shared" si="6"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="7"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="G14" s="20">
         <f>$J$3^2*$I$1*G4/2</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="Y14" s="39"/>
       <c r="Z14" s="40"/>
@@ -9030,49 +9030,49 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <f>$F$7</f>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B18" s="16">
         <v>0</v>
       </c>
       <c r="C18" s="30">
         <f>$F$8</f>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D18" s="16">
         <v>0</v>
       </c>
       <c r="E18" s="30">
         <f>$F$9</f>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F18" s="16">
         <v>0</v>
       </c>
       <c r="G18" s="29">
         <f>$B$7</f>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H18" s="16">
         <v>0</v>
       </c>
       <c r="I18" s="30">
         <f>$B$8</f>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J18" s="16">
         <v>0</v>
       </c>
       <c r="K18" s="30">
         <f>$B$9</f>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L18" s="16">
         <v>0</v>
       </c>
       <c r="N18" s="29">
         <f>$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O18" s="16">
         <v>0</v>
@@ -9086,14 +9086,14 @@
       </c>
       <c r="R18" s="30">
         <f>$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S18" s="16">
         <v>0</v>
       </c>
       <c r="T18" s="29">
         <f>$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U18" s="16">
         <v>0</v>
@@ -9107,7 +9107,7 @@
       </c>
       <c r="X18" s="30">
         <f>$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y18" s="16">
         <v>0</v>
@@ -9116,7 +9116,7 @@
     <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="29">
         <f t="shared" ref="A19:A27" si="8">$F$7</f>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B19" s="16">
         <f>B18+10</f>
@@ -9124,7 +9124,7 @@
       </c>
       <c r="C19" s="30">
         <f t="shared" ref="C19:C27" si="9">$F$8</f>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D19" s="16">
         <f>D18+10</f>
@@ -9132,7 +9132,7 @@
       </c>
       <c r="E19" s="30">
         <f t="shared" ref="E19:E27" si="10">$F$9</f>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F19" s="16">
         <f>F18+10</f>
@@ -9140,7 +9140,7 @@
       </c>
       <c r="G19" s="29">
         <f t="shared" ref="G19:G27" si="11">$B$7</f>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H19" s="16">
         <f>H18+10</f>
@@ -9148,7 +9148,7 @@
       </c>
       <c r="I19" s="30">
         <f t="shared" ref="I19:I27" si="12">$B$8</f>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J19" s="16">
         <f>J18+10</f>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="K19" s="30">
         <f t="shared" ref="K19:K27" si="13">$B$9</f>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L19" s="16">
         <f>L18+10</f>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="N19" s="29">
         <f t="shared" ref="N19:N27" si="14">$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O19" s="16">
         <f>O18+10</f>
@@ -9180,7 +9180,7 @@
       </c>
       <c r="R19" s="30">
         <f t="shared" ref="R19:R27" si="16">$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S19" s="16">
         <f>S18+10</f>
@@ -9188,7 +9188,7 @@
       </c>
       <c r="T19" s="29">
         <f t="shared" ref="T19:T27" si="17">$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U19" s="16">
         <f>U18+10</f>
@@ -9204,7 +9204,7 @@
       </c>
       <c r="X19" s="30">
         <f t="shared" ref="X19:X27" si="19">$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y19" s="16">
         <f>Y18+10</f>
@@ -9214,7 +9214,7 @@
     <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B20" s="16">
         <f t="shared" ref="B20:D27" si="20">B19+10</f>
@@ -9222,7 +9222,7 @@
       </c>
       <c r="C20" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" si="20"/>
@@ -9230,7 +9230,7 @@
       </c>
       <c r="E20" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F20" s="16">
         <f t="shared" ref="F20" si="21">F19+10</f>
@@ -9238,7 +9238,7 @@
       </c>
       <c r="G20" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H20" s="16">
         <f t="shared" ref="H20" si="22">H19+10</f>
@@ -9246,7 +9246,7 @@
       </c>
       <c r="I20" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J20" s="16">
         <f t="shared" ref="J20" si="23">J19+10</f>
@@ -9254,7 +9254,7 @@
       </c>
       <c r="K20" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L20" s="16">
         <f t="shared" ref="L20:L27" si="24">L19+10</f>
@@ -9262,7 +9262,7 @@
       </c>
       <c r="N20" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O20" s="16">
         <f t="shared" ref="O20" si="25">O19+10</f>
@@ -9278,7 +9278,7 @@
       </c>
       <c r="R20" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S20" s="16">
         <f t="shared" ref="S20:S27" si="27">S19+10</f>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="T20" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U20" s="16">
         <f t="shared" ref="U20" si="28">U19+10</f>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="X20" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y20" s="16">
         <f t="shared" ref="Y20:Y27" si="30">Y19+10</f>
@@ -9312,7 +9312,7 @@
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B21" s="16">
         <f t="shared" si="20"/>
@@ -9320,7 +9320,7 @@
       </c>
       <c r="C21" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="20"/>
@@ -9328,7 +9328,7 @@
       </c>
       <c r="E21" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F21" s="16">
         <f t="shared" ref="F21" si="31">F20+10</f>
@@ -9336,7 +9336,7 @@
       </c>
       <c r="G21" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H21" s="16">
         <f t="shared" ref="H21" si="32">H20+10</f>
@@ -9344,7 +9344,7 @@
       </c>
       <c r="I21" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J21" s="16">
         <f t="shared" ref="J21" si="33">J20+10</f>
@@ -9352,7 +9352,7 @@
       </c>
       <c r="K21" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L21" s="16">
         <f t="shared" si="24"/>
@@ -9360,7 +9360,7 @@
       </c>
       <c r="N21" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O21" s="16">
         <f t="shared" ref="O21" si="34">O20+10</f>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="R21" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S21" s="16">
         <f t="shared" si="27"/>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="T21" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U21" s="16">
         <f t="shared" ref="U21" si="36">U20+10</f>
@@ -9400,7 +9400,7 @@
       </c>
       <c r="X21" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y21" s="16">
         <f t="shared" si="30"/>
@@ -9410,7 +9410,7 @@
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B22" s="16">
         <f t="shared" si="20"/>
@@ -9418,7 +9418,7 @@
       </c>
       <c r="C22" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="20"/>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="E22" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F22" s="16">
         <f t="shared" ref="F22" si="38">F21+10</f>
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G22" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H22" s="16">
         <f t="shared" ref="H22" si="39">H21+10</f>
@@ -9442,7 +9442,7 @@
       </c>
       <c r="I22" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J22" s="16">
         <f t="shared" ref="J22" si="40">J21+10</f>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="K22" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L22" s="16">
         <f t="shared" si="24"/>
@@ -9458,7 +9458,7 @@
       </c>
       <c r="N22" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" ref="O22" si="41">O21+10</f>
@@ -9474,7 +9474,7 @@
       </c>
       <c r="R22" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S22" s="16">
         <f t="shared" si="27"/>
@@ -9482,7 +9482,7 @@
       </c>
       <c r="T22" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U22" s="16">
         <f t="shared" ref="U22" si="43">U21+10</f>
@@ -9498,7 +9498,7 @@
       </c>
       <c r="X22" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y22" s="16">
         <f t="shared" si="30"/>
@@ -9508,7 +9508,7 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B23" s="16">
         <f t="shared" si="20"/>
@@ -9516,7 +9516,7 @@
       </c>
       <c r="C23" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="20"/>
@@ -9524,7 +9524,7 @@
       </c>
       <c r="E23" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F23" s="16">
         <f t="shared" ref="F23" si="45">F22+10</f>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="G23" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" ref="H23" si="46">H22+10</f>
@@ -9540,7 +9540,7 @@
       </c>
       <c r="I23" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" ref="J23" si="47">J22+10</f>
@@ -9548,7 +9548,7 @@
       </c>
       <c r="K23" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L23" s="16">
         <f t="shared" si="24"/>
@@ -9556,7 +9556,7 @@
       </c>
       <c r="N23" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O23" s="16">
         <f t="shared" ref="O23" si="48">O22+10</f>
@@ -9572,7 +9572,7 @@
       </c>
       <c r="R23" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S23" s="16">
         <f t="shared" si="27"/>
@@ -9580,7 +9580,7 @@
       </c>
       <c r="T23" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U23" s="16">
         <f t="shared" ref="U23" si="50">U22+10</f>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="X23" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y23" s="16">
         <f t="shared" si="30"/>
@@ -9606,7 +9606,7 @@
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B24" s="16">
         <f t="shared" si="20"/>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="C24" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="20"/>
@@ -9622,7 +9622,7 @@
       </c>
       <c r="E24" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F24" s="16">
         <f t="shared" ref="F24" si="52">F23+10</f>
@@ -9630,7 +9630,7 @@
       </c>
       <c r="G24" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H24" s="16">
         <f t="shared" ref="H24" si="53">H23+10</f>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="I24" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J24" s="16">
         <f t="shared" ref="J24" si="54">J23+10</f>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="K24" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L24" s="16">
         <f t="shared" si="24"/>
@@ -9654,7 +9654,7 @@
       </c>
       <c r="N24" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O24" s="16">
         <f t="shared" ref="O24" si="55">O23+10</f>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="R24" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S24" s="16">
         <f t="shared" si="27"/>
@@ -9678,7 +9678,7 @@
       </c>
       <c r="T24" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U24" s="16">
         <f t="shared" ref="U24" si="57">U23+10</f>
@@ -9694,7 +9694,7 @@
       </c>
       <c r="X24" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y24" s="16">
         <f t="shared" si="30"/>
@@ -9704,7 +9704,7 @@
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B25" s="16">
         <f t="shared" si="20"/>
@@ -9712,7 +9712,7 @@
       </c>
       <c r="C25" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="20"/>
@@ -9720,7 +9720,7 @@
       </c>
       <c r="E25" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F25" s="16">
         <f t="shared" ref="F25" si="59">F24+10</f>
@@ -9728,7 +9728,7 @@
       </c>
       <c r="G25" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H25" s="16">
         <f t="shared" ref="H25" si="60">H24+10</f>
@@ -9736,7 +9736,7 @@
       </c>
       <c r="I25" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J25" s="16">
         <f t="shared" ref="J25" si="61">J24+10</f>
@@ -9744,7 +9744,7 @@
       </c>
       <c r="K25" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L25" s="16">
         <f t="shared" si="24"/>
@@ -9752,7 +9752,7 @@
       </c>
       <c r="N25" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O25" s="16">
         <f t="shared" ref="O25" si="62">O24+10</f>
@@ -9768,7 +9768,7 @@
       </c>
       <c r="R25" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S25" s="16">
         <f t="shared" si="27"/>
@@ -9776,7 +9776,7 @@
       </c>
       <c r="T25" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U25" s="16">
         <f t="shared" ref="U25" si="64">U24+10</f>
@@ -9792,7 +9792,7 @@
       </c>
       <c r="X25" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y25" s="16">
         <f t="shared" si="30"/>
@@ -9802,7 +9802,7 @@
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B26" s="16">
         <f t="shared" si="20"/>
@@ -9810,7 +9810,7 @@
       </c>
       <c r="C26" s="30">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="20"/>
@@ -9818,7 +9818,7 @@
       </c>
       <c r="E26" s="30">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F26" s="16">
         <f t="shared" ref="F26" si="66">F25+10</f>
@@ -9826,7 +9826,7 @@
       </c>
       <c r="G26" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H26" s="16">
         <f t="shared" ref="H26" si="67">H25+10</f>
@@ -9834,7 +9834,7 @@
       </c>
       <c r="I26" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J26" s="16">
         <f t="shared" ref="J26" si="68">J25+10</f>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="K26" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L26" s="16">
         <f t="shared" si="24"/>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="N26" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O26" s="16">
         <f t="shared" ref="O26" si="69">O25+10</f>
@@ -9866,7 +9866,7 @@
       </c>
       <c r="R26" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S26" s="16">
         <f t="shared" si="27"/>
@@ -9874,7 +9874,7 @@
       </c>
       <c r="T26" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U26" s="16">
         <f t="shared" ref="U26" si="71">U25+10</f>
@@ -9890,7 +9890,7 @@
       </c>
       <c r="X26" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y26" s="16">
         <f t="shared" si="30"/>
@@ -9900,7 +9900,7 @@
     <row r="27" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="29">
         <f t="shared" si="8"/>
-        <v>68.101817445908992</v>
+        <v>102.15272616886348</v>
       </c>
       <c r="B27" s="4">
         <f t="shared" si="20"/>
@@ -9908,7 +9908,7 @@
       </c>
       <c r="C27" s="31">
         <f t="shared" si="9"/>
-        <v>102.15272616886348</v>
+        <v>113.50302907651498</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" si="20"/>
@@ -9916,7 +9916,7 @@
       </c>
       <c r="E27" s="31">
         <f t="shared" si="10"/>
-        <v>105.93616047141397</v>
+        <v>121.06989768161598</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ref="F27" si="73">F26+10</f>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="G27" s="29">
         <f t="shared" si="11"/>
-        <v>58.617371907839207</v>
+        <v>87.926057861758807</v>
       </c>
       <c r="H27" s="4">
         <f t="shared" ref="H27" si="74">H26+10</f>
@@ -9932,7 +9932,7 @@
       </c>
       <c r="I27" s="30">
         <f t="shared" si="12"/>
-        <v>87.926057861758807</v>
+        <v>97.695619846398671</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" ref="J27" si="75">J26+10</f>
@@ -9940,7 +9940,7 @@
       </c>
       <c r="K27" s="30">
         <f t="shared" si="13"/>
-        <v>91.182578523305423</v>
+        <v>104.20866116949192</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="24"/>
@@ -9948,7 +9948,7 @@
       </c>
       <c r="N27" s="29">
         <f t="shared" si="14"/>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="O27" s="4">
         <f t="shared" ref="O27" si="76">O26+10</f>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="R27" s="30">
         <f t="shared" si="16"/>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="27"/>
@@ -9972,7 +9972,7 @@
       </c>
       <c r="T27" s="29">
         <f t="shared" si="17"/>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" ref="U27" si="78">U26+10</f>
@@ -9988,7 +9988,7 @@
       </c>
       <c r="X27" s="30">
         <f t="shared" si="19"/>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="Y27" s="4">
         <f t="shared" si="30"/>
@@ -10157,49 +10157,49 @@
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <f>$F$12</f>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B32" s="16">
         <v>0</v>
       </c>
       <c r="C32" s="30">
         <f>$F$13</f>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D32" s="16">
         <v>0</v>
       </c>
       <c r="E32" s="30">
         <f>$F$14</f>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F32" s="16">
         <v>0</v>
       </c>
       <c r="G32" s="29">
         <f>$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H32" s="16">
         <v>0</v>
       </c>
       <c r="I32" s="30">
         <f>$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J32" s="16">
         <v>0</v>
       </c>
       <c r="K32" s="30">
         <f>$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L32" s="16">
         <v>0</v>
       </c>
       <c r="N32" s="29">
         <f>$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O32" s="16">
         <v>0</v>
@@ -10213,14 +10213,14 @@
       </c>
       <c r="R32" s="30">
         <f>$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S32" s="16">
         <v>0</v>
       </c>
       <c r="T32" s="29">
         <f>$C$12</f>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U32" s="16">
         <v>0</v>
@@ -10234,7 +10234,7 @@
       </c>
       <c r="X32" s="30">
         <f>$C$14</f>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y32" s="16">
         <v>0</v>
@@ -10243,7 +10243,7 @@
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="29">
         <f t="shared" ref="A33:A41" si="80">$F$12</f>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B33" s="16">
         <f>B32+10</f>
@@ -10251,7 +10251,7 @@
       </c>
       <c r="C33" s="30">
         <f t="shared" ref="C33:C41" si="81">$F$13</f>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D33" s="16">
         <f>D32+10</f>
@@ -10259,7 +10259,7 @@
       </c>
       <c r="E33" s="30">
         <f t="shared" ref="E33:E41" si="82">$F$14</f>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F33" s="16">
         <f>F32+10</f>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="G33" s="29">
         <f t="shared" ref="G33:G41" si="83">$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H33" s="16">
         <f>H32+10</f>
@@ -10275,7 +10275,7 @@
       </c>
       <c r="I33" s="30">
         <f t="shared" ref="I33:I41" si="84">$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J33" s="16">
         <f>J32+10</f>
@@ -10283,7 +10283,7 @@
       </c>
       <c r="K33" s="30">
         <f t="shared" ref="K33:K41" si="85">$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L33" s="16">
         <f>L32+10</f>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="N33" s="29">
         <f t="shared" ref="N33:N41" si="86">$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O33" s="16">
         <f>O32+10</f>
@@ -10307,7 +10307,7 @@
       </c>
       <c r="R33" s="30">
         <f t="shared" ref="R33:R41" si="88">$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S33" s="16">
         <f>S32+10</f>
@@ -10315,7 +10315,7 @@
       </c>
       <c r="T33" s="29">
         <f t="shared" ref="T33:T41" si="89">$C$12</f>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U33" s="16">
         <f>U32+10</f>
@@ -10331,7 +10331,7 @@
       </c>
       <c r="X33" s="30">
         <f t="shared" ref="X33:X41" si="91">$C$14</f>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y33" s="16">
         <f>Y32+10</f>
@@ -10341,7 +10341,7 @@
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B34" s="16">
         <f t="shared" ref="B34" si="92">B33+10</f>
@@ -10349,7 +10349,7 @@
       </c>
       <c r="C34" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" ref="D34" si="93">D33+10</f>
@@ -10357,7 +10357,7 @@
       </c>
       <c r="E34" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F34" s="16">
         <f t="shared" ref="F34:F41" si="94">F33+10</f>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="G34" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H34" s="16">
         <f t="shared" ref="H34" si="95">H33+10</f>
@@ -10373,7 +10373,7 @@
       </c>
       <c r="I34" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J34" s="16">
         <f t="shared" ref="J34" si="96">J33+10</f>
@@ -10381,7 +10381,7 @@
       </c>
       <c r="K34" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L34" s="16">
         <f t="shared" ref="L34:L41" si="97">L33+10</f>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="N34" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O34" s="16">
         <f t="shared" ref="O34" si="98">O33+10</f>
@@ -10405,7 +10405,7 @@
       </c>
       <c r="R34" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S34" s="16">
         <f t="shared" ref="S34:S41" si="100">S33+10</f>
@@ -10413,7 +10413,7 @@
       </c>
       <c r="T34" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U34" s="16">
         <f t="shared" ref="U34" si="101">U33+10</f>
@@ -10429,7 +10429,7 @@
       </c>
       <c r="X34" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y34" s="16">
         <f t="shared" ref="Y34:Y41" si="103">Y33+10</f>
@@ -10439,7 +10439,7 @@
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B35" s="16">
         <f t="shared" ref="B35" si="104">B34+10</f>
@@ -10447,7 +10447,7 @@
       </c>
       <c r="C35" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D35" s="16">
         <f t="shared" ref="D35" si="105">D34+10</f>
@@ -10455,7 +10455,7 @@
       </c>
       <c r="E35" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F35" s="16">
         <f t="shared" si="94"/>
@@ -10463,7 +10463,7 @@
       </c>
       <c r="G35" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H35" s="16">
         <f t="shared" ref="H35" si="106">H34+10</f>
@@ -10471,7 +10471,7 @@
       </c>
       <c r="I35" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J35" s="16">
         <f t="shared" ref="J35" si="107">J34+10</f>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="K35" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L35" s="16">
         <f t="shared" si="97"/>
@@ -10487,7 +10487,7 @@
       </c>
       <c r="N35" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O35" s="16">
         <f t="shared" ref="O35" si="108">O34+10</f>
@@ -10503,7 +10503,7 @@
       </c>
       <c r="R35" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S35" s="16">
         <f t="shared" si="100"/>
@@ -10511,7 +10511,7 @@
       </c>
       <c r="T35" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U35" s="16">
         <f t="shared" ref="U35" si="110">U34+10</f>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="X35" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y35" s="16">
         <f t="shared" si="103"/>
@@ -10537,7 +10537,7 @@
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B36" s="16">
         <f t="shared" ref="B36" si="112">B35+10</f>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="C36" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D36" s="16">
         <f t="shared" ref="D36" si="113">D35+10</f>
@@ -10553,7 +10553,7 @@
       </c>
       <c r="E36" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F36" s="16">
         <f t="shared" si="94"/>
@@ -10561,7 +10561,7 @@
       </c>
       <c r="G36" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H36" s="16">
         <f t="shared" ref="H36" si="114">H35+10</f>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="I36" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J36" s="16">
         <f t="shared" ref="J36" si="115">J35+10</f>
@@ -10577,7 +10577,7 @@
       </c>
       <c r="K36" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L36" s="16">
         <f t="shared" si="97"/>
@@ -10585,7 +10585,7 @@
       </c>
       <c r="N36" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O36" s="16">
         <f t="shared" ref="O36" si="116">O35+10</f>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="R36" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S36" s="16">
         <f t="shared" si="100"/>
@@ -10609,7 +10609,7 @@
       </c>
       <c r="T36" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U36" s="16">
         <f t="shared" ref="U36" si="118">U35+10</f>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="X36" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y36" s="16">
         <f t="shared" si="103"/>
@@ -10635,7 +10635,7 @@
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B37" s="16">
         <f t="shared" ref="B37" si="120">B36+10</f>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="C37" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D37" s="16">
         <f t="shared" ref="D37" si="121">D36+10</f>
@@ -10651,7 +10651,7 @@
       </c>
       <c r="E37" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F37" s="16">
         <f t="shared" si="94"/>
@@ -10659,7 +10659,7 @@
       </c>
       <c r="G37" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H37" s="16">
         <f t="shared" ref="H37" si="122">H36+10</f>
@@ -10667,7 +10667,7 @@
       </c>
       <c r="I37" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J37" s="16">
         <f t="shared" ref="J37" si="123">J36+10</f>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="K37" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L37" s="16">
         <f t="shared" si="97"/>
@@ -10683,7 +10683,7 @@
       </c>
       <c r="N37" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O37" s="16">
         <f t="shared" ref="O37" si="124">O36+10</f>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="R37" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S37" s="16">
         <f t="shared" si="100"/>
@@ -10707,7 +10707,7 @@
       </c>
       <c r="T37" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U37" s="16">
         <f t="shared" ref="U37" si="126">U36+10</f>
@@ -10723,7 +10723,7 @@
       </c>
       <c r="X37" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y37" s="16">
         <f t="shared" si="103"/>
@@ -10733,7 +10733,7 @@
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B38" s="16">
         <f t="shared" ref="B38" si="128">B37+10</f>
@@ -10741,7 +10741,7 @@
       </c>
       <c r="C38" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D38" s="16">
         <f t="shared" ref="D38" si="129">D37+10</f>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="E38" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F38" s="16">
         <f t="shared" si="94"/>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="G38" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H38" s="16">
         <f t="shared" ref="H38" si="130">H37+10</f>
@@ -10765,7 +10765,7 @@
       </c>
       <c r="I38" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J38" s="16">
         <f t="shared" ref="J38" si="131">J37+10</f>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="K38" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L38" s="16">
         <f t="shared" si="97"/>
@@ -10781,7 +10781,7 @@
       </c>
       <c r="N38" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O38" s="16">
         <f t="shared" ref="O38" si="132">O37+10</f>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="R38" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S38" s="16">
         <f t="shared" si="100"/>
@@ -10805,7 +10805,7 @@
       </c>
       <c r="T38" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U38" s="16">
         <f t="shared" ref="U38" si="134">U37+10</f>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="X38" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y38" s="16">
         <f t="shared" si="103"/>
@@ -10831,7 +10831,7 @@
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B39" s="16">
         <f t="shared" ref="B39" si="136">B38+10</f>
@@ -10839,7 +10839,7 @@
       </c>
       <c r="C39" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D39" s="16">
         <f t="shared" ref="D39" si="137">D38+10</f>
@@ -10847,7 +10847,7 @@
       </c>
       <c r="E39" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F39" s="16">
         <f t="shared" si="94"/>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="G39" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H39" s="16">
         <f t="shared" ref="H39" si="138">H38+10</f>
@@ -10863,7 +10863,7 @@
       </c>
       <c r="I39" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J39" s="16">
         <f t="shared" ref="J39" si="139">J38+10</f>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="K39" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L39" s="16">
         <f t="shared" si="97"/>
@@ -10879,7 +10879,7 @@
       </c>
       <c r="N39" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O39" s="16">
         <f t="shared" ref="O39" si="140">O38+10</f>
@@ -10895,7 +10895,7 @@
       </c>
       <c r="R39" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S39" s="16">
         <f t="shared" si="100"/>
@@ -10903,7 +10903,7 @@
       </c>
       <c r="T39" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U39" s="16">
         <f t="shared" ref="U39" si="142">U38+10</f>
@@ -10919,7 +10919,7 @@
       </c>
       <c r="X39" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y39" s="16">
         <f t="shared" si="103"/>
@@ -10929,7 +10929,7 @@
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B40" s="16">
         <f t="shared" ref="B40" si="144">B39+10</f>
@@ -10937,7 +10937,7 @@
       </c>
       <c r="C40" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D40" s="16">
         <f t="shared" ref="D40" si="145">D39+10</f>
@@ -10945,7 +10945,7 @@
       </c>
       <c r="E40" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F40" s="16">
         <f t="shared" si="94"/>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="G40" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H40" s="16">
         <f t="shared" ref="H40" si="146">H39+10</f>
@@ -10961,7 +10961,7 @@
       </c>
       <c r="I40" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J40" s="16">
         <f t="shared" ref="J40" si="147">J39+10</f>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="K40" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L40" s="16">
         <f t="shared" si="97"/>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="N40" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O40" s="16">
         <f t="shared" ref="O40" si="148">O39+10</f>
@@ -10993,7 +10993,7 @@
       </c>
       <c r="R40" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S40" s="16">
         <f t="shared" si="100"/>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="T40" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U40" s="16">
         <f t="shared" ref="U40" si="150">U39+10</f>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="X40" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y40" s="16">
         <f t="shared" si="103"/>
@@ -11027,7 +11027,7 @@
     <row r="41" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="29">
         <f t="shared" si="80"/>
-        <v>81.713592170414202</v>
+        <v>122.5703882556213</v>
       </c>
       <c r="B41" s="4">
         <f t="shared" ref="B41" si="152">B40+10</f>
@@ -11035,7 +11035,7 @@
       </c>
       <c r="C41" s="30">
         <f t="shared" si="81"/>
-        <v>122.5703882556213</v>
+        <v>136.18932028402367</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" ref="D41" si="153">D40+10</f>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="E41" s="30">
         <f t="shared" si="82"/>
-        <v>127.11003226508873</v>
+        <v>145.26860830295857</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="94"/>
@@ -11051,7 +11051,7 @@
       </c>
       <c r="G41" s="29">
         <f t="shared" si="83"/>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" ref="H41" si="154">H40+10</f>
@@ -11059,7 +11059,7 @@
       </c>
       <c r="I41" s="30">
         <f t="shared" si="84"/>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="J41" s="4">
         <f t="shared" ref="J41" si="155">J40+10</f>
@@ -11067,7 +11067,7 @@
       </c>
       <c r="K41" s="30">
         <f t="shared" si="85"/>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="97"/>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="N41" s="29">
         <f t="shared" si="86"/>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="O41" s="4">
         <f t="shared" ref="O41" si="156">O40+10</f>
@@ -11091,7 +11091,7 @@
       </c>
       <c r="R41" s="30">
         <f t="shared" si="88"/>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="S41" s="4">
         <f t="shared" si="100"/>
@@ -11099,7 +11099,7 @@
       </c>
       <c r="T41" s="29">
         <f t="shared" si="89"/>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="U41" s="4">
         <f t="shared" ref="U41" si="158">U40+10</f>
@@ -11115,7 +11115,7 @@
       </c>
       <c r="X41" s="30">
         <f t="shared" si="91"/>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="Y41" s="4">
         <f t="shared" si="103"/>
@@ -11277,7 +11277,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="E2" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11300,7 +11300,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -11314,7 +11314,7 @@
       </c>
       <c r="E3" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -11323,7 +11323,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="E4" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F4">
         <v>0.2</v>
@@ -11346,7 +11346,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -11360,7 +11360,7 @@
       </c>
       <c r="E5" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -11369,7 +11369,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -11383,7 +11383,7 @@
       </c>
       <c r="E6" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -11392,7 +11392,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="E7" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -11415,7 +11415,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B8">
         <v>0.6</v>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="E8" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -11438,7 +11438,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -11452,7 +11452,7 @@
       </c>
       <c r="E9" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F9">
         <v>0.7</v>
@@ -11461,7 +11461,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -11475,7 +11475,7 @@
       </c>
       <c r="E10" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F10">
         <v>0.8</v>
@@ -11484,7 +11484,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -11498,7 +11498,7 @@
       </c>
       <c r="E11" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F11">
         <v>0.9</v>
@@ -11507,7 +11507,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11521,7 +11521,7 @@
       </c>
       <c r="E12" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -11530,7 +11530,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="E13" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F13">
         <v>1.1000000000000001</v>
@@ -11553,7 +11553,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B14">
         <v>1.2</v>
@@ -11567,7 +11567,7 @@
       </c>
       <c r="E14" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F14">
         <v>1.2</v>
@@ -11576,7 +11576,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B15">
         <v>1.3</v>
@@ -11590,7 +11590,7 @@
       </c>
       <c r="E15" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F15">
         <v>1.3</v>
@@ -11599,7 +11599,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B16">
         <v>1.4</v>
@@ -11613,7 +11613,7 @@
       </c>
       <c r="E16" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F16">
         <v>1.4</v>
@@ -11622,7 +11622,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -11636,7 +11636,7 @@
       </c>
       <c r="E17" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F17">
         <v>1.5</v>
@@ -11645,7 +11645,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -11659,7 +11659,7 @@
       </c>
       <c r="E18" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F18">
         <v>1.6</v>
@@ -11668,7 +11668,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$G$9</f>
-        <v>116.492355</v>
+        <v>126.62212500000001</v>
       </c>
       <c r="B19">
         <v>1.7</v>
@@ -11682,7 +11682,7 @@
       </c>
       <c r="E19" s="36">
         <f>Sheet1!$G$7</f>
-        <v>81.038160000000005</v>
+        <v>96.232815000000002</v>
       </c>
       <c r="F19">
         <v>1.7</v>
@@ -11726,7 +11726,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="E2" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -11749,7 +11749,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -11763,7 +11763,7 @@
       </c>
       <c r="E3" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -11772,7 +11772,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -11786,7 +11786,7 @@
       </c>
       <c r="E4" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F4">
         <v>0.2</v>
@@ -11795,7 +11795,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="E5" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -11818,7 +11818,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -11832,7 +11832,7 @@
       </c>
       <c r="E6" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -11841,7 +11841,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -11855,7 +11855,7 @@
       </c>
       <c r="E7" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -11864,7 +11864,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B8">
         <v>0.6</v>
@@ -11878,7 +11878,7 @@
       </c>
       <c r="E8" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -11887,7 +11887,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="E9" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F9">
         <v>0.7</v>
@@ -11910,7 +11910,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -11924,7 +11924,7 @@
       </c>
       <c r="E10" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F10">
         <v>0.8</v>
@@ -11933,7 +11933,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -11947,7 +11947,7 @@
       </c>
       <c r="E11" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F11">
         <v>0.9</v>
@@ -11956,7 +11956,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -11970,7 +11970,7 @@
       </c>
       <c r="E12" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -11979,7 +11979,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
@@ -11993,7 +11993,7 @@
       </c>
       <c r="E13" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F13">
         <v>1.1000000000000001</v>
@@ -12002,7 +12002,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B14">
         <v>1.2</v>
@@ -12016,7 +12016,7 @@
       </c>
       <c r="E14" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F14">
         <v>1.2</v>
@@ -12025,7 +12025,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B15">
         <v>1.3</v>
@@ -12039,7 +12039,7 @@
       </c>
       <c r="E15" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F15">
         <v>1.3</v>
@@ -12048,7 +12048,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B16">
         <v>1.4</v>
@@ -12062,7 +12062,7 @@
       </c>
       <c r="E16" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F16">
         <v>1.4</v>
@@ -12071,7 +12071,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="E17" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F17">
         <v>1.5</v>
@@ -12094,7 +12094,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -12108,7 +12108,7 @@
       </c>
       <c r="E18" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F18">
         <v>1.6</v>
@@ -12117,7 +12117,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$C$9</f>
-        <v>100.26862649999998</v>
+        <v>108.98763749999999</v>
       </c>
       <c r="B19">
         <v>1.7</v>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="E19" s="36">
         <f>Sheet1!$C$7</f>
-        <v>69.752088000000001</v>
+        <v>82.830604499999993</v>
       </c>
       <c r="F19">
         <v>1.7</v>
@@ -12175,7 +12175,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$C$14</f>
-        <v>116.95332594959997</v>
+        <v>127.12318037999998</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="E2" s="36">
         <f>Sheet1!$C$12</f>
-        <v>81.358835443199993</v>
+        <v>96.613617088799984</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12198,21 +12198,21 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -12221,21 +12221,21 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B4">
         <v>0.2</v>
       </c>
       <c r="C4" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D4">
         <v>0.2</v>
       </c>
       <c r="E4" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F4">
         <v>0.2</v>
@@ -12244,21 +12244,21 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D5">
         <v>0.3</v>
       </c>
       <c r="E5" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -12267,21 +12267,21 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B6">
         <v>0.4</v>
       </c>
       <c r="C6" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D6">
         <v>0.4</v>
       </c>
       <c r="E6" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -12290,21 +12290,21 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D7">
         <v>0.5</v>
       </c>
       <c r="E7" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -12313,21 +12313,21 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B8">
         <v>0.6</v>
       </c>
       <c r="C8" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D8">
         <v>0.6</v>
       </c>
       <c r="E8" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -12336,21 +12336,21 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D9">
         <v>0.7</v>
       </c>
       <c r="E9" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F9">
         <v>0.7</v>
@@ -12359,21 +12359,21 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D10">
         <v>0.8</v>
       </c>
       <c r="E10" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F10">
         <v>0.8</v>
@@ -12382,21 +12382,21 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D11">
         <v>0.9</v>
       </c>
       <c r="E11" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F11">
         <v>0.9</v>
@@ -12405,21 +12405,21 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -12428,21 +12428,21 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D13">
         <v>1.1000000000000001</v>
       </c>
       <c r="E13" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F13">
         <v>1.1000000000000001</v>
@@ -12451,21 +12451,21 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B14">
         <v>1.2</v>
       </c>
       <c r="C14" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D14">
         <v>1.2</v>
       </c>
       <c r="E14" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F14">
         <v>1.2</v>
@@ -12474,21 +12474,21 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B15">
         <v>1.3</v>
       </c>
       <c r="C15" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D15">
         <v>1.3</v>
       </c>
       <c r="E15" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F15">
         <v>1.3</v>
@@ -12497,21 +12497,21 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B16">
         <v>1.4</v>
       </c>
       <c r="C16" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D16">
         <v>1.4</v>
       </c>
       <c r="E16" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F16">
         <v>1.4</v>
@@ -12520,21 +12520,21 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B17">
         <v>1.5</v>
       </c>
       <c r="C17" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D17">
         <v>1.5</v>
       </c>
       <c r="E17" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F17">
         <v>1.5</v>
@@ -12543,21 +12543,21 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B18">
         <v>1.6</v>
       </c>
       <c r="C18" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D18">
         <v>1.6</v>
       </c>
       <c r="E18" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F18">
         <v>1.6</v>
@@ -12566,21 +12566,21 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$B$14</f>
-        <v>109.4075945978698</v>
+        <v>125.03725096899407</v>
       </c>
       <c r="B19">
         <v>1.7</v>
       </c>
       <c r="C19" s="36">
         <f>Sheet1!$B$13</f>
-        <v>105.50018050508875</v>
+        <v>117.22242278343194</v>
       </c>
       <c r="D19">
         <v>1.7</v>
       </c>
       <c r="E19" s="36">
         <f>Sheet1!$B$12</f>
-        <v>70.333453670059171</v>
+        <v>105.50018050508875</v>
       </c>
       <c r="F19">
         <v>1.7</v>
@@ -12624,7 +12624,7 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -12638,7 +12638,7 @@
       </c>
       <c r="E2" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -12647,7 +12647,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B3">
         <v>0.1</v>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="E3" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F3">
         <v>0.1</v>
@@ -12670,7 +12670,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B4">
         <v>0.2</v>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="E4" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F4">
         <v>0.2</v>
@@ -12693,7 +12693,7 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B5">
         <v>0.3</v>
@@ -12707,7 +12707,7 @@
       </c>
       <c r="E5" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -12716,7 +12716,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B6">
         <v>0.4</v>
@@ -12730,7 +12730,7 @@
       </c>
       <c r="E6" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F6">
         <v>0.4</v>
@@ -12739,7 +12739,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -12753,7 +12753,7 @@
       </c>
       <c r="E7" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F7">
         <v>0.5</v>
@@ -12762,7 +12762,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B8">
         <v>0.6</v>
@@ -12776,7 +12776,7 @@
       </c>
       <c r="E8" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F8">
         <v>0.6</v>
@@ -12785,7 +12785,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B9">
         <v>0.7</v>
@@ -12799,7 +12799,7 @@
       </c>
       <c r="E9" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F9">
         <v>0.7</v>
@@ -12808,7 +12808,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B10">
         <v>0.8</v>
@@ -12822,7 +12822,7 @@
       </c>
       <c r="E10" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F10">
         <v>0.8</v>
@@ -12831,7 +12831,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B11">
         <v>0.9</v>
@@ -12845,7 +12845,7 @@
       </c>
       <c r="E11" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F11">
         <v>0.9</v>
@@ -12854,7 +12854,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -12868,7 +12868,7 @@
       </c>
       <c r="E12" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -12877,7 +12877,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
@@ -12891,7 +12891,7 @@
       </c>
       <c r="E13" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F13">
         <v>1.1000000000000001</v>
@@ -12900,7 +12900,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B14">
         <v>1.2</v>
@@ -12914,7 +12914,7 @@
       </c>
       <c r="E14" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F14">
         <v>1.2</v>
@@ -12923,7 +12923,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B15">
         <v>1.3</v>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="E15" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F15">
         <v>1.3</v>
@@ -12946,7 +12946,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B16">
         <v>1.4</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="E16" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F16">
         <v>1.4</v>
@@ -12969,7 +12969,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -12983,7 +12983,7 @@
       </c>
       <c r="E17" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F17">
         <v>1.5</v>
@@ -12992,7 +12992,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B18">
         <v>1.6</v>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="E18" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F18">
         <v>1.6</v>
@@ -13015,7 +13015,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
         <f>Sheet1!$G$14</f>
-        <v>135.87668287199998</v>
+        <v>147.69204659999997</v>
       </c>
       <c r="B19">
         <v>1.7</v>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="E19" s="36">
         <f>Sheet1!$G$12</f>
-        <v>94.522909823999996</v>
+        <v>112.24595541599997</v>
       </c>
       <c r="F19">
         <v>1.7</v>
